--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:28:27+00:00</t>
+    <t>2025-09-22T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:05:42+00:00</t>
+    <t>2025-09-24T14:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T14:08:52+00:00</t>
+    <t>2025-10-01T08:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Transport</t>
+    <t>TDDUI Task Transport</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T08:29:05+00:00</t>
+    <t>2025-10-20T13:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,7 +237,7 @@
     <t>Constraint(s)</t>
   </si>
   <si>
-    <t>Mapping: Transport</t>
+    <t>Mapping: Modèle de contenu DUI</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -273,6 +273,9 @@
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}</t>
+  </si>
+  <si>
+    <t>Transport</t>
   </si>
   <si>
     <t>Request, Event</t>
@@ -1554,9 +1557,6 @@
     <t>Distance du trajet</t>
   </si>
   <si>
-    <t>distanceTrajet</t>
-  </si>
-  <si>
     <t>Task.input:distance.id</t>
   </si>
   <si>
@@ -1591,9 +1591,6 @@
   </si>
   <si>
     <t>Durée théorique du trajet</t>
-  </si>
-  <si>
-    <t>dureeTheoriqueTrajet</t>
   </si>
   <si>
     <t>Task.input:dureeTheorique.id</t>
@@ -2019,7 +2016,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="18.546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="47.7734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="94.296875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
@@ -2251,13 +2248,13 @@
         <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2268,10 +2265,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2282,7 +2279,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
@@ -2291,19 +2288,19 @@
         <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2353,13 +2350,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2385,10 +2382,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2399,7 +2396,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
@@ -2408,16 +2405,16 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2468,19 +2465,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2500,10 +2497,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2514,28 +2511,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2585,19 +2582,19 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
@@ -2617,10 +2614,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2631,7 +2628,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -2643,16 +2640,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2678,13 +2675,13 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>79</v>
@@ -2702,19 +2699,19 @@
         <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2734,21 +2731,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2760,16 +2757,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2819,19 +2816,19 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
@@ -2840,7 +2837,7 @@
         <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -2851,14 +2848,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2877,16 +2874,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2936,7 +2933,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -2957,7 +2954,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -2968,14 +2965,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2994,16 +2991,16 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3053,7 +3050,7 @@
         <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3065,7 +3062,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -3074,7 +3071,7 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>79</v>
@@ -3085,14 +3082,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3105,25 +3102,25 @@
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>79</v>
@@ -3172,7 +3169,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3184,7 +3181,7 @@
         <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3193,7 +3190,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3204,10 +3201,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3215,10 +3212,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3230,13 +3227,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3287,7 +3284,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3299,19 +3296,19 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>79</v>
@@ -3319,10 +3316,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3333,7 +3330,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3342,20 +3339,20 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>79</v>
@@ -3404,28 +3401,28 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -3436,10 +3433,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3450,7 +3447,7 @@
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
@@ -3459,20 +3456,20 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3521,28 +3518,28 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3553,10 +3550,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3576,16 +3573,16 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3636,7 +3633,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3648,16 +3645,16 @@
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3668,10 +3665,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3682,7 +3679,7 @@
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3691,20 +3688,20 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -3753,28 +3750,28 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3785,10 +3782,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3808,22 +3805,22 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3872,7 +3869,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3884,16 +3881,16 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -3904,10 +3901,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3915,32 +3912,32 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3965,13 +3962,13 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3989,31 +3986,31 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -4021,10 +4018,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4035,7 +4032,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -4044,19 +4041,19 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4082,10 +4079,10 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -4106,19 +4103,19 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4127,7 +4124,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4138,10 +4135,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4152,7 +4149,7 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4161,20 +4158,20 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4199,10 +4196,10 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4223,19 +4220,19 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4244,7 +4241,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4255,10 +4252,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4266,10 +4263,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4278,19 +4275,19 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4316,13 +4313,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4340,31 +4337,31 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4372,10 +4369,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4386,7 +4383,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4398,23 +4395,23 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>79</v>
@@ -4435,13 +4432,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4459,31 +4456,31 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4491,10 +4488,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4505,7 +4502,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4514,19 +4511,19 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4552,11 +4549,11 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4574,31 +4571,31 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4606,10 +4603,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4620,7 +4617,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4629,16 +4626,16 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4689,19 +4686,19 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
@@ -4710,7 +4707,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4721,10 +4718,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4735,7 +4732,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4744,22 +4741,22 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4808,19 +4805,19 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
@@ -4829,10 +4826,10 @@
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4840,21 +4837,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4863,20 +4860,20 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4925,31 +4922,31 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -4957,10 +4954,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4968,10 +4965,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4980,20 +4977,20 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -5042,31 +5039,31 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -5074,10 +5071,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5085,10 +5082,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5097,16 +5094,16 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5157,31 +5154,31 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5189,10 +5186,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5203,7 +5200,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5215,13 +5212,13 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5272,13 +5269,13 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
@@ -5293,7 +5290,7 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5304,14 +5301,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5330,16 +5327,16 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5377,19 +5374,19 @@
         <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5401,7 +5398,7 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5410,7 +5407,7 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5421,10 +5418,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5432,10 +5429,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5444,19 +5441,19 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5506,42 +5503,42 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5549,10 +5546,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5561,26 +5558,26 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
@@ -5625,53 +5622,53 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5683,17 +5680,17 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5742,31 +5739,31 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5774,21 +5771,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5797,20 +5794,20 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5859,19 +5856,19 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -5880,7 +5877,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5891,10 +5888,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5905,7 +5902,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5914,20 +5911,20 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5976,31 +5973,31 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -6008,10 +6005,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6034,17 +6031,17 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6069,13 +6066,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6093,7 +6090,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6105,19 +6102,19 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6125,21 +6122,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6148,22 +6145,22 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6212,31 +6209,31 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6244,10 +6241,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6258,7 +6255,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6267,20 +6264,20 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6329,31 +6326,31 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6361,10 +6358,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6375,7 +6372,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6387,16 +6384,16 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6422,10 +6419,10 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6446,42 +6443,42 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6492,7 +6489,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6504,16 +6501,16 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6563,31 +6560,31 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6595,10 +6592,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6621,13 +6618,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6678,7 +6675,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6690,30 +6687,30 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6736,13 +6733,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6793,7 +6790,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6805,16 +6802,16 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6825,14 +6822,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6851,16 +6848,16 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6910,7 +6907,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6922,16 +6919,16 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6942,10 +6939,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6956,7 +6953,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6968,17 +6965,17 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -7027,19 +7024,19 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7048,7 +7045,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7059,10 +7056,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7073,7 +7070,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7085,13 +7082,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7142,13 +7139,13 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7163,7 +7160,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7174,14 +7171,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7200,16 +7197,16 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7259,7 +7256,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7271,7 +7268,7 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7280,7 +7277,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7291,14 +7288,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7311,25 +7308,25 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7378,7 +7375,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7390,7 +7387,7 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7399,7 +7396,7 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7410,10 +7407,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7424,7 +7421,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7436,17 +7433,17 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7495,19 +7492,19 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7516,7 +7513,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7527,10 +7524,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7541,7 +7538,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7553,19 +7550,19 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7614,19 +7611,19 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -7635,7 +7632,7 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7646,10 +7643,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7672,13 +7669,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7729,7 +7726,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7741,7 +7738,7 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
@@ -7750,7 +7747,7 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7761,14 +7758,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7787,17 +7784,17 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7834,17 +7831,17 @@
         <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7856,7 +7853,7 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -7865,7 +7862,7 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7876,10 +7873,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7890,7 +7887,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7902,13 +7899,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7959,13 +7956,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -7980,7 +7977,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7991,14 +7988,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8017,16 +8014,16 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8076,7 +8073,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8088,7 +8085,7 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -8097,7 +8094,7 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8108,14 +8105,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8128,25 +8125,25 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8195,7 +8192,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8207,7 +8204,7 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8216,7 +8213,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8227,21 +8224,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8253,19 +8250,19 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8290,10 +8287,10 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8314,19 +8311,19 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8335,7 +8332,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8346,10 +8343,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8357,10 +8354,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8372,13 +8369,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8429,19 +8426,19 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8450,7 +8447,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8461,23 +8458,23 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8489,17 +8486,17 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8548,7 +8545,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8560,16 +8557,16 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8580,10 +8577,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8594,7 +8591,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8606,13 +8603,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8663,13 +8660,13 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
@@ -8684,7 +8681,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8695,14 +8692,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8721,16 +8718,16 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8780,7 +8777,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8792,7 +8789,7 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8801,7 +8798,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8812,14 +8809,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8832,25 +8829,25 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8899,7 +8896,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8911,7 +8908,7 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -8920,7 +8917,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8931,21 +8928,21 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8957,19 +8954,19 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -8979,7 +8976,7 @@
         <v>79</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>79</v>
@@ -8994,10 +8991,10 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9018,19 +9015,19 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9039,7 +9036,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9050,10 +9047,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9061,10 +9058,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9076,13 +9073,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9109,11 +9106,11 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -9131,19 +9128,19 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9152,7 +9149,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9163,23 +9160,23 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9191,17 +9188,17 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9250,7 +9247,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9262,16 +9259,16 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9282,10 +9279,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9296,7 +9293,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9308,13 +9305,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9365,13 +9362,13 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
@@ -9386,7 +9383,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9397,14 +9394,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9423,16 +9420,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9482,7 +9479,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9494,7 +9491,7 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -9503,7 +9500,7 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9514,14 +9511,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9534,25 +9531,25 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9601,7 +9598,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9613,7 +9610,7 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -9622,7 +9619,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9633,21 +9630,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9659,19 +9656,19 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -9681,7 +9678,7 @@
         <v>79</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>79</v>
@@ -9696,10 +9693,10 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9720,19 +9717,19 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -9741,7 +9738,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9752,10 +9749,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9763,10 +9760,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9778,13 +9775,13 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9835,19 +9832,19 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -9856,7 +9853,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9867,23 +9864,23 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9895,17 +9892,17 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -9954,7 +9951,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9966,16 +9963,16 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9986,10 +9983,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10000,7 +9997,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10012,13 +10009,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10069,13 +10066,13 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
@@ -10090,7 +10087,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10101,14 +10098,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10127,16 +10124,16 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10186,7 +10183,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10198,7 +10195,7 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10207,7 +10204,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10218,14 +10215,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10238,25 +10235,25 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10305,7 +10302,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10317,7 +10314,7 @@
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10326,7 +10323,7 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10337,21 +10334,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10363,19 +10360,19 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10385,7 +10382,7 @@
         <v>79</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>79</v>
@@ -10400,10 +10397,10 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>79</v>
@@ -10424,19 +10421,19 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10445,7 +10442,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10456,10 +10453,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10467,10 +10464,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10482,13 +10479,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10539,19 +10536,19 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10560,7 +10557,7 @@
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10571,23 +10568,23 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10599,17 +10596,17 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -10658,7 +10655,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10670,16 +10667,16 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10690,10 +10687,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10704,7 +10701,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10716,13 +10713,13 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10773,13 +10770,13 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
@@ -10794,7 +10791,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10805,14 +10802,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10831,16 +10828,16 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10890,7 +10887,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -10902,7 +10899,7 @@
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -10911,7 +10908,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10922,14 +10919,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10942,25 +10939,25 @@
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
@@ -11009,7 +11006,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11021,7 +11018,7 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11030,7 +11027,7 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11041,21 +11038,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11067,19 +11064,19 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11089,7 +11086,7 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>79</v>
@@ -11104,10 +11101,10 @@
         <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11128,19 +11125,19 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
@@ -11149,7 +11146,7 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11160,10 +11157,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11171,10 +11168,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11186,13 +11183,13 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11243,19 +11240,19 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
@@ -11264,7 +11261,7 @@
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11275,23 +11272,23 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11303,17 +11300,17 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -11362,7 +11359,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11374,16 +11371,16 @@
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11394,10 +11391,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11408,7 +11405,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11420,13 +11417,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11477,13 +11474,13 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
@@ -11498,7 +11495,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11509,14 +11506,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11535,16 +11532,16 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11594,7 +11591,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11606,7 +11603,7 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -11615,7 +11612,7 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11626,14 +11623,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11646,25 +11643,25 @@
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -11713,7 +11710,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11725,7 +11722,7 @@
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
@@ -11734,7 +11731,7 @@
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11745,21 +11742,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11771,19 +11768,19 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -11793,7 +11790,7 @@
         <v>79</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>79</v>
@@ -11808,10 +11805,10 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -11832,19 +11829,19 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
@@ -11853,7 +11850,7 @@
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -11864,10 +11861,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11875,10 +11872,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11890,13 +11887,13 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11947,19 +11944,19 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
@@ -11968,7 +11965,7 @@
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -11979,23 +11976,23 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12007,17 +12004,17 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -12066,7 +12063,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12078,16 +12075,16 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12101,7 +12098,7 @@
         <v>489</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12112,7 +12109,7 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12124,13 +12121,13 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12181,13 +12178,13 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
@@ -12202,7 +12199,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12216,11 +12213,11 @@
         <v>490</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12239,16 +12236,16 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12298,7 +12295,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12310,7 +12307,7 @@
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>79</v>
@@ -12319,7 +12316,7 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12333,11 +12330,11 @@
         <v>491</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12350,25 +12347,25 @@
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -12417,7 +12414,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12429,7 +12426,7 @@
         <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>79</v>
@@ -12438,7 +12435,7 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12452,18 +12449,18 @@
         <v>492</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12475,19 +12472,19 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -12512,10 +12509,10 @@
         <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12536,19 +12533,19 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
@@ -12557,7 +12554,7 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12571,7 +12568,7 @@
         <v>494</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12579,10 +12576,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
@@ -12597,10 +12594,10 @@
         <v>495</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12651,19 +12648,19 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
@@ -12672,7 +12669,7 @@
         <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12686,20 +12683,20 @@
         <v>496</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>497</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
@@ -12711,17 +12708,17 @@
         <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>498</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -12770,7 +12767,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -12782,16 +12779,16 @@
         <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -12802,10 +12799,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12816,7 +12813,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -12828,13 +12825,13 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12885,13 +12882,13 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>79</v>
@@ -12906,7 +12903,7 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -12917,14 +12914,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12943,16 +12940,16 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13002,7 +12999,7 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13014,7 +13011,7 @@
         <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
@@ -13023,7 +13020,7 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13034,14 +13031,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13054,25 +13051,25 @@
         <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
@@ -13121,7 +13118,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13133,7 +13130,7 @@
         <v>79</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
@@ -13142,7 +13139,7 @@
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13153,21 +13150,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
@@ -13179,19 +13176,19 @@
         <v>79</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>79</v>
@@ -13201,7 +13198,7 @@
         <v>79</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>79</v>
@@ -13216,10 +13213,10 @@
         <v>79</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13240,19 +13237,19 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>79</v>
@@ -13261,7 +13258,7 @@
         <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13272,10 +13269,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13283,10 +13280,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
@@ -13298,13 +13295,13 @@
         <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13355,19 +13352,19 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>79</v>
@@ -13376,7 +13373,7 @@
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13387,10 +13384,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13413,17 +13410,17 @@
         <v>79</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>79</v>
@@ -13472,7 +13469,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13484,7 +13481,7 @@
         <v>79</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>79</v>
@@ -13493,7 +13490,7 @@
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13504,10 +13501,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13518,7 +13515,7 @@
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>79</v>
@@ -13530,13 +13527,13 @@
         <v>79</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13587,13 +13584,13 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>79</v>
@@ -13608,7 +13605,7 @@
         <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
@@ -13619,14 +13616,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -13645,16 +13642,16 @@
         <v>79</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13704,7 +13701,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -13716,7 +13713,7 @@
         <v>79</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>79</v>
@@ -13725,7 +13722,7 @@
         <v>79</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>79</v>
@@ -13736,14 +13733,14 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -13756,25 +13753,25 @@
         <v>79</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>79</v>
@@ -13823,7 +13820,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -13835,7 +13832,7 @@
         <v>79</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
@@ -13844,7 +13841,7 @@
         <v>79</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>79</v>
@@ -13855,21 +13852,21 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>79</v>
@@ -13881,17 +13878,17 @@
         <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>79</v>
@@ -13916,10 +13913,10 @@
         <v>79</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>79</v>
@@ -13940,19 +13937,19 @@
         <v>79</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>79</v>
@@ -13961,7 +13958,7 @@
         <v>79</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -13972,10 +13969,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13983,10 +13980,10 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>79</v>
@@ -13998,17 +13995,17 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>79</v>
@@ -14057,19 +14054,19 @@
         <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>79</v>
@@ -14078,7 +14075,7 @@
         <v>79</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:10:23+00:00</t>
+    <t>2025-10-21T07:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T07:40:55+00:00</t>
+    <t>2025-10-22T07:21:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:21:52+00:00</t>
+    <t>2025-10-22T14:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-task-transport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:35:45+00:00</t>
+    <t>2025-10-23T08:42:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
